--- a/raw_data/20200818_saline/20200818_Sensor3_Test_38.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_38.xlsx
@@ -1,2624 +1,3040 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83FF340-2B3E-47BA-AE4A-E515B83D6A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>33856.741068</v>
+        <v>33856.741068000003</v>
       </c>
       <c r="B2" s="1">
-        <v>9.404650</v>
+        <v>9.4046500000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1150.980000</v>
+        <v>1150.98</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.318000</v>
+        <v>-261.31799999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>33866.811835</v>
       </c>
       <c r="G2" s="1">
-        <v>9.407448</v>
+        <v>9.4074480000000005</v>
       </c>
       <c r="H2" s="1">
-        <v>1172.520000</v>
+        <v>1172.52</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.554000</v>
+        <v>-219.554</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>33877.271966</v>
       </c>
       <c r="L2" s="1">
-        <v>9.410353</v>
+        <v>9.4103530000000006</v>
       </c>
       <c r="M2" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="N2" s="1">
-        <v>-152.904000</v>
+        <v>-152.904</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>33888.096499</v>
+        <v>33888.096498999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.413360</v>
+        <v>9.4133600000000008</v>
       </c>
       <c r="R2" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.224000</v>
+        <v>-130.22399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>33898.990785</v>
+        <v>33898.990785000002</v>
       </c>
       <c r="V2" s="1">
-        <v>9.416386</v>
+        <v>9.4163859999999993</v>
       </c>
       <c r="W2" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.938000</v>
+        <v>-108.938</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>33909.354726</v>
+        <v>33909.354725999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.419265</v>
+        <v>9.4192649999999993</v>
       </c>
       <c r="AB2" s="1">
-        <v>1223.650000</v>
+        <v>1223.6500000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.672700</v>
+        <v>-91.672700000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>33919.582693</v>
+        <v>33919.582692999997</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.422106</v>
+        <v>9.4221059999999994</v>
       </c>
       <c r="AG2" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.830800</v>
+        <v>-86.830799999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>33930.009592</v>
+        <v>33930.009592000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.425003</v>
+        <v>9.4250030000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.930000</v>
+        <v>-89.93</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>33940.904249</v>
+        <v>33940.904248999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.428029</v>
+        <v>9.4280290000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1243.140000</v>
+        <v>1243.1400000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.727000</v>
+        <v>-101.727</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>33952.193163</v>
+        <v>33952.193163000004</v>
       </c>
       <c r="AU2" s="1">
         <v>9.431165</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.960000</v>
+        <v>1252.96</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.074000</v>
+        <v>-121.074</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>33963.333309</v>
+        <v>33963.333309000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.434259</v>
+        <v>9.4342590000000008</v>
       </c>
       <c r="BA2" s="1">
-        <v>1261.380000</v>
+        <v>1261.3800000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.611000</v>
+        <v>-138.61099999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>33973.983901</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.437218</v>
+        <v>9.4372179999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1301.140000</v>
+        <v>1301.1400000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.008000</v>
+        <v>-221.00800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>33984.675168</v>
+        <v>33984.675168000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.440188</v>
+        <v>9.4401879999999991</v>
       </c>
       <c r="BK2" s="1">
-        <v>1370.190000</v>
+        <v>1370.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.768000</v>
+        <v>-358.76799999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>33995.492946</v>
+        <v>33995.492945999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.443192</v>
+        <v>9.4431919999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.920000</v>
+        <v>1483.92</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-584.254000</v>
+        <v>-584.25400000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>34006.638050</v>
+        <v>34006.638050000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.446288</v>
+        <v>9.4462879999999991</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.390000</v>
+        <v>1615.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-840.073000</v>
+        <v>-840.07299999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>34017.652180</v>
+        <v>34017.652179999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.449348</v>
+        <v>9.4493480000000005</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1768.280000</v>
+        <v>1768.28</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1118.050000</v>
+        <v>-1118.05</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>34028.715981</v>
+        <v>34028.715981000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.452421</v>
+        <v>9.4524209999999993</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.940000</v>
+        <v>2188.94</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1794.210000</v>
+        <v>-1794.21</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>33857.105626</v>
+        <v>33857.105625999997</v>
       </c>
       <c r="B3" s="1">
-        <v>9.404752</v>
+        <v>9.4047520000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1150.680000</v>
+        <v>1150.68</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.200000</v>
+        <v>-261.2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>33867.186812</v>
       </c>
       <c r="G3" s="1">
-        <v>9.407552</v>
+        <v>9.4075520000000008</v>
       </c>
       <c r="H3" s="1">
-        <v>1172.920000</v>
+        <v>1172.92</v>
       </c>
       <c r="I3" s="1">
-        <v>-219.507000</v>
+        <v>-219.50700000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>33877.648465</v>
+        <v>33877.648464999998</v>
       </c>
       <c r="L3" s="1">
-        <v>9.410458</v>
+        <v>9.4104580000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.190000</v>
+        <v>1201.19</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.833000</v>
+        <v>-152.833</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>33888.832260</v>
+        <v>33888.832260000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.413565</v>
+        <v>9.4135650000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.304000</v>
+        <v>-130.304</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>33899.320657</v>
+        <v>33899.320656999997</v>
       </c>
       <c r="V3" s="1">
-        <v>9.416478</v>
+        <v>9.4164779999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1216.170000</v>
+        <v>1216.17</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.905000</v>
+        <v>-108.905</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>33909.742562</v>
+        <v>33909.742561999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.419373</v>
+        <v>9.4193730000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.669300</v>
+        <v>-91.669300000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>33919.944802</v>
+        <v>33919.944801999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.422207</v>
+        <v>9.4222070000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.821200</v>
+        <v>-86.821200000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33930.373159</v>
+        <v>33930.373159000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.425104</v>
+        <v>9.4251039999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>1235.270000</v>
+        <v>1235.27</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.880000</v>
+        <v>-89.88</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>33941.601593</v>
+        <v>33941.601592999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.428223</v>
+        <v>9.4282229999999991</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>33952.630635</v>
+        <v>33952.630635000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.431286</v>
+        <v>9.4312860000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1253.000000</v>
+        <v>1253</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.089000</v>
+        <v>-121.089</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>33963.751435</v>
+        <v>33963.751434999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.434375</v>
+        <v>9.4343749999999993</v>
       </c>
       <c r="BA3" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.616000</v>
+        <v>-138.61600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>33974.343501</v>
+        <v>33974.343501000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.437318</v>
+        <v>9.4373179999999994</v>
       </c>
       <c r="BF3" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.013000</v>
+        <v>-221.01300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>33985.091808</v>
+        <v>33985.091807999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.440303</v>
+        <v>9.4403030000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1370.230000</v>
+        <v>1370.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.799000</v>
+        <v>-358.79899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>33995.915010</v>
+        <v>33995.915009999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.443310</v>
+        <v>9.4433100000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.900000</v>
+        <v>1483.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-584.219000</v>
+        <v>-584.21900000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>34007.079986</v>
+        <v>34007.079985999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.446411</v>
+        <v>9.4464109999999994</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.320000</v>
+        <v>1615.32</v>
       </c>
       <c r="BV3" s="1">
-        <v>-840.050000</v>
+        <v>-840.05</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>34017.832229</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.449398</v>
+        <v>9.4493980000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1768.200000</v>
+        <v>1768.2</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1118.070000</v>
+        <v>-1118.07</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>34029.007588</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.452502</v>
+        <v>9.4525020000000008</v>
       </c>
       <c r="CE3" s="1">
-        <v>2188.700000</v>
+        <v>2188.6999999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1796.060000</v>
+        <v>-1796.06</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>33857.446881</v>
+        <v>33857.446881000003</v>
       </c>
       <c r="B4" s="1">
-        <v>9.404846</v>
+        <v>9.4048459999999992</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.630000</v>
+        <v>-260.63</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>33867.877274</v>
+        <v>33867.877273999999</v>
       </c>
       <c r="G4" s="1">
-        <v>9.407744</v>
+        <v>9.4077439999999992</v>
       </c>
       <c r="H4" s="1">
-        <v>1172.900000</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.866000</v>
+        <v>-219.86600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>33878.340882</v>
+        <v>33878.340881999997</v>
       </c>
       <c r="L4" s="1">
-        <v>9.410650</v>
+        <v>9.4106500000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1200.930000</v>
+        <v>1200.93</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.881000</v>
+        <v>-152.881</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>33889.179938</v>
+        <v>33889.179938000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.413661</v>
+        <v>9.4136609999999994</v>
       </c>
       <c r="R4" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.309000</v>
+        <v>-130.309</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>33899.663889</v>
+        <v>33899.663889000003</v>
       </c>
       <c r="V4" s="1">
-        <v>9.416573</v>
+        <v>9.4165729999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>33910.092740</v>
+        <v>33910.09274</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.419470</v>
+        <v>9.4194700000000005</v>
       </c>
       <c r="AB4" s="1">
-        <v>1223.490000</v>
+        <v>1223.49</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.595200</v>
+        <v>-91.595200000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>33920.598004</v>
+        <v>33920.598003999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.422388</v>
+        <v>9.4223879999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.812700</v>
+        <v>-86.812700000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>33931.038790</v>
+        <v>33931.038789999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.425289</v>
+        <v>9.4252889999999994</v>
       </c>
       <c r="AL4" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.886400</v>
+        <v>-89.886399999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>33942.020738</v>
+        <v>33942.020737999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.428339</v>
+        <v>9.4283389999999994</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.780000</v>
+        <v>-101.78</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>33952.992218</v>
+        <v>33952.992217999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.431387</v>
+        <v>9.4313870000000009</v>
       </c>
       <c r="AV4" s="1">
-        <v>1253.010000</v>
+        <v>1253.01</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.067000</v>
+        <v>-121.06699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>33964.110042</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.434475</v>
+        <v>9.4344750000000008</v>
       </c>
       <c r="BA4" s="1">
-        <v>1261.380000</v>
+        <v>1261.3800000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.611000</v>
+        <v>-138.61099999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>33974.704124</v>
+        <v>33974.704124000004</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.437418</v>
+        <v>9.4374179999999992</v>
       </c>
       <c r="BF4" s="1">
-        <v>1301.140000</v>
+        <v>1301.1400000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.006000</v>
+        <v>-221.006</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>33985.504661</v>
+        <v>33985.504660999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.440418</v>
+        <v>9.4404179999999993</v>
       </c>
       <c r="BK4" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.805000</v>
+        <v>-358.80500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>33996.347061</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.443430</v>
+        <v>9.4434299999999993</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-584.238000</v>
+        <v>-584.23800000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>34007.517427</v>
+        <v>34007.517426999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.446533</v>
+        <v>9.4465330000000005</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.230000</v>
+        <v>1615.23</v>
       </c>
       <c r="BV4" s="1">
-        <v>-839.943000</v>
+        <v>-839.94299999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>34018.282596</v>
+        <v>34018.282595999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.449523</v>
+        <v>9.4495229999999992</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1768.190000</v>
+        <v>1768.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>34029.527437</v>
+        <v>34029.527436999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.452647</v>
+        <v>9.4526470000000007</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.630000</v>
+        <v>2190.63</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1795.440000</v>
+        <v>-1795.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>33858.129863</v>
+        <v>33858.129863000002</v>
       </c>
       <c r="B5" s="1">
-        <v>9.405036</v>
+        <v>9.4050360000000008</v>
       </c>
       <c r="C5" s="1">
-        <v>1146.080000</v>
+        <v>1146.08</v>
       </c>
       <c r="D5" s="1">
-        <v>-257.217000</v>
+        <v>-257.21699999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>33868.221498</v>
+        <v>33868.221497999999</v>
       </c>
       <c r="G5" s="1">
-        <v>9.407839</v>
+        <v>9.4078389999999992</v>
       </c>
       <c r="H5" s="1">
-        <v>1172.760000</v>
+        <v>1172.76</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.903000</v>
+        <v>-219.90299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>33878.688043</v>
+        <v>33878.688043000002</v>
       </c>
       <c r="L5" s="1">
-        <v>9.410747</v>
+        <v>9.4107470000000006</v>
       </c>
       <c r="M5" s="1">
-        <v>1201.140000</v>
+        <v>1201.1400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.840000</v>
+        <v>-152.84</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>33889.530591</v>
+        <v>33889.530591000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.413758</v>
+        <v>9.4137579999999996</v>
       </c>
       <c r="R5" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.296000</v>
+        <v>-130.29599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>33900.328856</v>
       </c>
       <c r="V5" s="1">
-        <v>9.416758</v>
+        <v>9.4167579999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.040000</v>
+        <v>1216.04</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.068000</v>
+        <v>-109.068</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>33910.760353</v>
+        <v>33910.760352999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.419656</v>
+        <v>9.4196559999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1223.700000</v>
+        <v>1223.7</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.643100</v>
+        <v>-91.643100000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>33920.975492</v>
+        <v>33920.975491999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.422493</v>
+        <v>9.4224929999999993</v>
       </c>
       <c r="AG5" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.867400</v>
+        <v>-86.867400000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>33931.417734</v>
+        <v>33931.417734000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.425394</v>
+        <v>9.4253940000000007</v>
       </c>
       <c r="AL5" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.926700</v>
+        <v>-89.926699999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>33942.379817</v>
+        <v>33942.379817000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.428439</v>
+        <v>9.4284389999999991</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.772000</v>
+        <v>-101.77200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>33953.357291</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.431488</v>
+        <v>9.4314879999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1253.000000</v>
+        <v>1253</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.101000</v>
+        <v>-121.101</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>33964.467162</v>
+        <v>33964.467162000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.434574</v>
+        <v>9.4345739999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.606000</v>
+        <v>-138.60599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>33975.133133</v>
+        <v>33975.133133000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.437537</v>
+        <v>9.4375370000000007</v>
       </c>
       <c r="BF5" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.042000</v>
+        <v>-221.042</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>33985.842750</v>
+        <v>33985.842750000003</v>
       </c>
       <c r="BJ5" s="1">
         <v>9.440512</v>
       </c>
       <c r="BK5" s="1">
-        <v>1370.200000</v>
+        <v>1370.2</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.807000</v>
+        <v>-358.80700000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>33996.734399</v>
+        <v>33996.734399000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.443537</v>
+        <v>9.4435369999999992</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.240000</v>
+        <v>-584.24</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>34007.944480</v>
+        <v>34007.944479999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.446651</v>
+        <v>9.4466509999999992</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.190000</v>
+        <v>1615.19</v>
       </c>
       <c r="BV5" s="1">
-        <v>-839.906000</v>
+        <v>-839.90599999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>34018.738947</v>
+        <v>34018.738946999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.449650</v>
+        <v>9.4496500000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1768.260000</v>
+        <v>1768.26</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1118.100000</v>
+        <v>-1118.0999999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>34030.065588</v>
+        <v>34030.065587999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.452796</v>
+        <v>9.4527959999999993</v>
       </c>
       <c r="CE5" s="1">
-        <v>2188.090000</v>
+        <v>2188.09</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1794.960000</v>
+        <v>-1794.96</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>33858.473590</v>
+        <v>33858.473590000001</v>
       </c>
       <c r="B6" s="1">
         <v>9.405132</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.210000</v>
+        <v>1143.21</v>
       </c>
       <c r="D6" s="1">
-        <v>-249.447000</v>
+        <v>-249.447</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>33868.567674</v>
+        <v>33868.567673999998</v>
       </c>
       <c r="G6" s="1">
-        <v>9.407935</v>
+        <v>9.4079350000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1173.110000</v>
+        <v>1173.1099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.872000</v>
+        <v>-219.87200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>33879.032763</v>
+        <v>33879.032763000003</v>
       </c>
       <c r="L6" s="1">
-        <v>9.410842</v>
+        <v>9.4108420000000006</v>
       </c>
       <c r="M6" s="1">
-        <v>1201.050000</v>
+        <v>1201.05</v>
       </c>
       <c r="N6" s="1">
-        <v>-152.563000</v>
+        <v>-152.56299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>33890.186798</v>
+        <v>33890.186798000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.413941</v>
+        <v>9.4139409999999994</v>
       </c>
       <c r="R6" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.173000</v>
+        <v>-130.173</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>33900.694078</v>
       </c>
       <c r="V6" s="1">
-        <v>9.416859</v>
+        <v>9.4168590000000005</v>
       </c>
       <c r="W6" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.023000</v>
+        <v>-109.023</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>33911.137810</v>
+        <v>33911.13781</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.419761</v>
+        <v>9.4197609999999994</v>
       </c>
       <c r="AB6" s="1">
-        <v>1223.850000</v>
+        <v>1223.8499999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.715000</v>
+        <v>-91.715000000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>33921.321203</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.422589</v>
+        <v>9.4225890000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.838100</v>
+        <v>-86.838099999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>33931.764933</v>
+        <v>33931.764932999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.425490</v>
+        <v>9.4254899999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1235.280000</v>
+        <v>1235.28</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.923300</v>
+        <v>-89.923299999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>33942.740903</v>
+        <v>33942.740902999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.428539</v>
+        <v>9.4285390000000007</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.770000</v>
+        <v>-101.77</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>33953.780893</v>
+        <v>33953.780893000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.431606</v>
+        <v>9.4316060000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>1253.020000</v>
+        <v>1253.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.065000</v>
+        <v>-121.065</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>33964.884813</v>
+        <v>33964.884812999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.434690</v>
+        <v>9.4346899999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.597000</v>
+        <v>-138.59700000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>33975.428785</v>
+        <v>33975.428784999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.437619</v>
+        <v>9.4376189999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1301.120000</v>
+        <v>1301.1199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.002000</v>
+        <v>-221.00200000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>33986.218221</v>
+        <v>33986.218221000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.440616</v>
+        <v>9.4406160000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1370.190000</v>
+        <v>1370.19</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.790000</v>
+        <v>-358.79</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>33997.130741</v>
+        <v>33997.130741000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.443647</v>
+        <v>9.4436470000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-584.253000</v>
+        <v>-584.25300000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>34008.358180</v>
+        <v>34008.358180000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.446766</v>
+        <v>9.4467660000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.210000</v>
+        <v>1615.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-839.817000</v>
+        <v>-839.81700000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>34019.186803</v>
+        <v>34019.186802999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.449774</v>
+        <v>9.4497739999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1768.380000</v>
+        <v>1768.38</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>34030.607682</v>
+        <v>34030.607682000002</v>
       </c>
       <c r="CD6" s="1">
         <v>9.452947</v>
       </c>
       <c r="CE6" s="1">
-        <v>2190.500000</v>
+        <v>2190.5</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1797.100000</v>
+        <v>-1797.1</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>33858.834182</v>
+        <v>33858.834181999999</v>
       </c>
       <c r="B7" s="1">
-        <v>9.405232</v>
+        <v>9.4052319999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.590000</v>
+        <v>1143.5899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-243.734000</v>
+        <v>-243.73400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>33869.224417</v>
+        <v>33869.224416999998</v>
       </c>
       <c r="G7" s="1">
         <v>9.408118</v>
       </c>
       <c r="H7" s="1">
-        <v>1172.140000</v>
+        <v>1172.1400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.887000</v>
+        <v>-219.887</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>33879.703850</v>
+        <v>33879.703849999998</v>
       </c>
       <c r="L7" s="1">
-        <v>9.411029</v>
+        <v>9.4110289999999992</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.240000</v>
+        <v>1201.24</v>
       </c>
       <c r="N7" s="1">
-        <v>-152.533000</v>
+        <v>-152.53299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>33890.576187</v>
+        <v>33890.576186999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.414049</v>
+        <v>9.4140490000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.254000</v>
+        <v>-130.25399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>33901.028350</v>
+        <v>33901.028350000001</v>
       </c>
       <c r="V7" s="1">
-        <v>9.416952</v>
+        <v>9.4169520000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.997000</v>
+        <v>-108.997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>33911.488021</v>
+        <v>33911.488020999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.419858</v>
+        <v>9.4198579999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>1223.660000</v>
+        <v>1223.6600000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.759800</v>
+        <v>-91.759799999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>33921.668866</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.422686</v>
+        <v>9.4226860000000006</v>
       </c>
       <c r="AG7" s="1">
-        <v>1228.230000</v>
+        <v>1228.23</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.857400</v>
+        <v>-86.857399999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>33932.104198</v>
+        <v>33932.104198000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.425584</v>
+        <v>9.4255840000000006</v>
       </c>
       <c r="AL7" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.923300</v>
+        <v>-89.923299999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>33943.159030</v>
+        <v>33943.159030000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.428655</v>
+        <v>9.4286549999999991</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>33954.086928</v>
+        <v>33954.086927999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.431691</v>
+        <v>9.4316910000000007</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.990000</v>
+        <v>1252.99</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.087000</v>
+        <v>-121.087</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>33965.180937</v>
+        <v>33965.180936999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.434772</v>
+        <v>9.4347720000000006</v>
       </c>
       <c r="BA7" s="1">
-        <v>1261.340000</v>
+        <v>1261.3399999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.581000</v>
+        <v>-138.58099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>33975.789348</v>
+        <v>33975.789347999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.437719</v>
+        <v>9.4377189999999995</v>
       </c>
       <c r="BF7" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.997000</v>
+        <v>-220.99700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>33986.621996</v>
+        <v>33986.621996000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>9.440728</v>
       </c>
       <c r="BK7" s="1">
-        <v>1370.210000</v>
+        <v>1370.21</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.786000</v>
+        <v>-358.786</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>33997.552807</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.443765</v>
+        <v>9.4437650000000009</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.920000</v>
+        <v>1483.92</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.215000</v>
+        <v>-584.21500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>34008.788671</v>
+        <v>34008.788671000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.446886</v>
+        <v>9.4468859999999992</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.110000</v>
+        <v>1615.11</v>
       </c>
       <c r="BV7" s="1">
-        <v>-839.658000</v>
+        <v>-839.65800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>34019.632210</v>
+        <v>34019.632210000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.449898</v>
+        <v>9.4498979999999992</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1768.420000</v>
+        <v>1768.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1118.020000</v>
+        <v>-1118.02</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>34031.146865</v>
+        <v>34031.146865000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.453096</v>
+        <v>9.4530960000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.150000</v>
+        <v>2190.15</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1794.450000</v>
+        <v>-1794.45</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>33859.481462</v>
+        <v>33859.481462000003</v>
       </c>
       <c r="B8" s="1">
-        <v>9.405412</v>
+        <v>9.4054120000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.620000</v>
+        <v>1149.6199999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.887000</v>
+        <v>-260.887</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>33869.605801</v>
+        <v>33869.605800999998</v>
       </c>
       <c r="G8" s="1">
-        <v>9.408224</v>
+        <v>9.4082240000000006</v>
       </c>
       <c r="H8" s="1">
-        <v>1173.120000</v>
+        <v>1173.1199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.844000</v>
+        <v>-219.84399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>33880.069898</v>
+        <v>33880.069898000002</v>
       </c>
       <c r="L8" s="1">
-        <v>9.411131</v>
+        <v>9.4111309999999992</v>
       </c>
       <c r="M8" s="1">
-        <v>1201.120000</v>
+        <v>1201.1199999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-152.949000</v>
+        <v>-152.94900000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>33890.923883</v>
+        <v>33890.923883000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.414146</v>
+        <v>9.4141460000000006</v>
       </c>
       <c r="R8" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.276000</v>
+        <v>-130.27600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>33901.378728</v>
+        <v>33901.378728000003</v>
       </c>
       <c r="V8" s="1">
-        <v>9.417050</v>
+        <v>9.4170499999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.110000</v>
+        <v>1216.1099999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.981000</v>
+        <v>-108.98099999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>33911.833201</v>
+        <v>33911.833201000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.419954</v>
+        <v>9.4199540000000006</v>
       </c>
       <c r="AB8" s="1">
-        <v>1223.750000</v>
+        <v>1223.75</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.678700</v>
+        <v>-91.678700000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>33922.084516</v>
+        <v>33922.084516000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.422801</v>
+        <v>9.4228009999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1228.270000</v>
+        <v>1228.27</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.899200</v>
+        <v>-86.899199999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>33932.812485</v>
+        <v>33932.812485000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.425781</v>
+        <v>9.4257810000000006</v>
       </c>
       <c r="AL8" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.922000</v>
+        <v>-89.921999999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>33943.461095</v>
+        <v>33943.461094999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.428739</v>
+        <v>9.4287390000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.747000</v>
+        <v>-101.747</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>33954.453927</v>
+        <v>33954.453927000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.431793</v>
+        <v>9.4317930000000008</v>
       </c>
       <c r="AV8" s="1">
-        <v>1253.040000</v>
+        <v>1253.04</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.091000</v>
+        <v>-121.09099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>33965.546457</v>
+        <v>33965.546456999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.434874</v>
+        <v>9.4348740000000006</v>
       </c>
       <c r="BA8" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.593000</v>
+        <v>-138.59299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>33976.148940</v>
+        <v>33976.148939999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.437819</v>
+        <v>9.4378189999999993</v>
       </c>
       <c r="BF8" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.993000</v>
+        <v>-220.99299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>33987.372909</v>
+        <v>33987.372908999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.440937</v>
+        <v>9.4409369999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1370.230000</v>
+        <v>1370.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.823000</v>
+        <v>-358.82299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>33998.366239</v>
+        <v>33998.366239000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.443991</v>
+        <v>9.4439910000000005</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.930000</v>
+        <v>1483.93</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-584.295000</v>
+        <v>-584.29499999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>34009.218207</v>
+        <v>34009.218206999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.447005</v>
+        <v>9.4470050000000008</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.240000</v>
+        <v>1615.24</v>
       </c>
       <c r="BV8" s="1">
-        <v>-839.573000</v>
+        <v>-839.57299999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>34020.092528</v>
+        <v>34020.092528000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.450026</v>
+        <v>9.4500259999999994</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1768.300000</v>
+        <v>1768.3</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>34031.686481</v>
+        <v>34031.686480999997</v>
       </c>
       <c r="CD8" s="1">
         <v>9.453246</v>
       </c>
       <c r="CE8" s="1">
-        <v>2188.250000</v>
+        <v>2188.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1795.880000</v>
+        <v>-1795.88</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>33859.844533</v>
+        <v>33859.844533000003</v>
       </c>
       <c r="B9" s="1">
-        <v>9.405512</v>
+        <v>9.4055119999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1150.120000</v>
+        <v>1150.1199999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.941000</v>
+        <v>-260.94099999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>33869.949031</v>
+        <v>33869.949030999996</v>
       </c>
       <c r="G9" s="1">
-        <v>9.408319</v>
+        <v>9.4083190000000005</v>
       </c>
       <c r="H9" s="1">
-        <v>1171.960000</v>
+        <v>1171.96</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.791000</v>
+        <v>-219.791</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>33880.569899</v>
+        <v>33880.569899000002</v>
       </c>
       <c r="L9" s="1">
-        <v>9.411269</v>
+        <v>9.4112690000000008</v>
       </c>
       <c r="M9" s="1">
-        <v>1200.650000</v>
+        <v>1200.6500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-153.116000</v>
+        <v>-153.11600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>33891.273070</v>
+        <v>33891.273070000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.414243</v>
+        <v>9.4142430000000008</v>
       </c>
       <c r="R9" s="1">
-        <v>1208.880000</v>
+        <v>1208.8800000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.298000</v>
+        <v>-130.298</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>33901.813022</v>
+        <v>33901.813022000002</v>
       </c>
       <c r="V9" s="1">
-        <v>9.417170</v>
+        <v>9.4171700000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>1216.120000</v>
+        <v>1216.1199999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.113000</v>
+        <v>-109.113</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>33912.264720</v>
+        <v>33912.264719999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.420074</v>
+        <v>9.4200739999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.700000</v>
+        <v>1223.7</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.783600</v>
+        <v>-91.783600000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>33922.352850</v>
+        <v>33922.352850000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.422876</v>
+        <v>9.4228760000000005</v>
       </c>
       <c r="AG9" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.827900</v>
+        <v>-86.8279</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>33933.158691</v>
+        <v>33933.158690999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.425877</v>
+        <v>9.4258769999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.914900</v>
+        <v>-89.914900000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>33943.824932</v>
+        <v>33943.824932000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.428840</v>
+        <v>9.4288399999999992</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.759000</v>
+        <v>-101.759</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>33954.815511</v>
+        <v>33954.815511000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.431893</v>
+        <v>9.4318930000000005</v>
       </c>
       <c r="AV9" s="1">
-        <v>1253.010000</v>
+        <v>1253.01</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.097000</v>
+        <v>-121.09699999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>33965.903578</v>
+        <v>33965.903577999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.434973</v>
+        <v>9.4349729999999994</v>
       </c>
       <c r="BA9" s="1">
-        <v>1261.390000</v>
+        <v>1261.3900000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.616000</v>
+        <v>-138.61600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>33976.873594</v>
+        <v>33976.873593999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.438020</v>
+        <v>9.4380199999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.002000</v>
+        <v>-221.00200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>33987.773705</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.441048</v>
+        <v>9.4410480000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1370.250000</v>
+        <v>1370.25</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.820000</v>
+        <v>-358.82</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>33998.788332</v>
+        <v>33998.788331999996</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.444108</v>
+        <v>9.4441079999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.920000</v>
+        <v>1483.92</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-584.291000</v>
+        <v>-584.29100000000005</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>34009.627439</v>
+        <v>34009.627439000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.447119</v>
+        <v>9.4471190000000007</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.200000</v>
+        <v>1615.2</v>
       </c>
       <c r="BV9" s="1">
-        <v>-839.416000</v>
+        <v>-839.41600000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>34020.851872</v>
+        <v>34020.851871999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.450237</v>
+        <v>9.4502369999999996</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1768.290000</v>
+        <v>1768.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1118.150000</v>
+        <v>-1118.1500000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>34032.553488</v>
+        <v>34032.553487999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.453487</v>
+        <v>9.4534870000000009</v>
       </c>
       <c r="CE9" s="1">
-        <v>2189.980000</v>
+        <v>2189.98</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1794.190000</v>
+        <v>-1794.19</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>33860.192726</v>
+        <v>33860.192726000001</v>
       </c>
       <c r="B10" s="1">
-        <v>9.405609</v>
+        <v>9.4056090000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1150.180000</v>
+        <v>1150.18</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.001000</v>
+        <v>-261.00099999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>33870.295736</v>
       </c>
       <c r="G10" s="1">
-        <v>9.408415</v>
+        <v>9.4084149999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1172.940000</v>
+        <v>1172.94</v>
       </c>
       <c r="I10" s="1">
-        <v>-220.116000</v>
+        <v>-220.11600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>33880.758842</v>
+        <v>33880.758842000003</v>
       </c>
       <c r="L10" s="1">
-        <v>9.411322</v>
+        <v>9.4113220000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1201.140000</v>
+        <v>1201.1400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.987000</v>
+        <v>-152.98699999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>33891.690170</v>
+        <v>33891.690170000002</v>
       </c>
       <c r="Q10" s="1">
         <v>9.414358</v>
       </c>
       <c r="R10" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.296000</v>
+        <v>-130.29599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>33902.070445</v>
+        <v>33902.070444999998</v>
       </c>
       <c r="V10" s="1">
-        <v>9.417242</v>
+        <v>9.4172419999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.283000</v>
+        <v>-109.283</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>33912.532593</v>
+        <v>33912.532593000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.420148</v>
+        <v>9.4201479999999993</v>
       </c>
       <c r="AB10" s="1">
-        <v>1223.690000</v>
+        <v>1223.69</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.588800</v>
+        <v>-91.588800000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>33922.707489</v>
@@ -2627,1056 +3043,1056 @@
         <v>9.422974</v>
       </c>
       <c r="AG10" s="1">
-        <v>1228.250000</v>
+        <v>1228.25</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.812400</v>
+        <v>-86.812399999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>33933.508976</v>
+        <v>33933.508975999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.425975</v>
+        <v>9.4259749999999993</v>
       </c>
       <c r="AL10" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.923900</v>
+        <v>-89.923900000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>33944.182775</v>
+        <v>33944.182775000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.428940</v>
+        <v>9.4289400000000008</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.753000</v>
+        <v>-101.753</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>33955.544667</v>
+        <v>33955.544667000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.432096</v>
+        <v>9.4320959999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1253.000000</v>
+        <v>1253</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.074000</v>
+        <v>-121.074</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>33966.622798</v>
+        <v>33966.622797999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.435173</v>
+        <v>9.4351730000000007</v>
       </c>
       <c r="BA10" s="1">
-        <v>1261.340000</v>
+        <v>1261.3399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.626000</v>
+        <v>-138.626</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>33977.257498</v>
+        <v>33977.257497999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.438127</v>
+        <v>9.4381269999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.996000</v>
+        <v>-220.99600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>33988.147696</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.441152</v>
+        <v>9.4411520000000007</v>
       </c>
       <c r="BK10" s="1">
-        <v>1370.170000</v>
+        <v>1370.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.802000</v>
+        <v>-358.80200000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>33999.179676</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.444217</v>
+        <v>9.4442170000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.910000</v>
+        <v>1483.91</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.288000</v>
+        <v>-584.28800000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>34010.364959</v>
+        <v>34010.364958999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.447324</v>
+        <v>9.4473240000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.220000</v>
+        <v>1615.22</v>
       </c>
       <c r="BV10" s="1">
-        <v>-839.331000</v>
+        <v>-839.33100000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>34020.997695</v>
+        <v>34020.997694999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.450277</v>
+        <v>9.4502769999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1768.200000</v>
+        <v>1768.2</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1118.260000</v>
+        <v>-1118.26</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>34032.767264</v>
+        <v>34032.767264000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.453546</v>
+        <v>9.4535459999999993</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.140000</v>
+        <v>2190.14</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1794.700000</v>
+        <v>-1794.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>33860.532981</v>
+        <v>33860.532980999997</v>
       </c>
       <c r="B11" s="1">
-        <v>9.405704</v>
+        <v>9.4057040000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1150.130000</v>
+        <v>1150.1300000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.132000</v>
+        <v>-261.13200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>33870.723782</v>
+        <v>33870.723782000001</v>
       </c>
       <c r="G11" s="1">
-        <v>9.408534</v>
+        <v>9.4085339999999995</v>
       </c>
       <c r="H11" s="1">
-        <v>1172.210000</v>
+        <v>1172.21</v>
       </c>
       <c r="I11" s="1">
-        <v>-220.089000</v>
+        <v>-220.089</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>33881.452784</v>
+        <v>33881.452784000001</v>
       </c>
       <c r="L11" s="1">
-        <v>9.411515</v>
+        <v>9.4115149999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1200.730000</v>
+        <v>1200.73</v>
       </c>
       <c r="N11" s="1">
-        <v>-152.780000</v>
+        <v>-152.78</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>33891.970907</v>
+        <v>33891.970907000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.414436</v>
+        <v>9.4144360000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.309000</v>
+        <v>-130.309</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>33902.412684</v>
+        <v>33902.412684000003</v>
       </c>
       <c r="V11" s="1">
-        <v>9.417337</v>
+        <v>9.4173369999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.205000</v>
+        <v>-109.205</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>33912.879264</v>
+        <v>33912.879264000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.420244</v>
+        <v>9.4202440000000003</v>
       </c>
       <c r="AB11" s="1">
-        <v>1223.610000</v>
+        <v>1223.6099999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.670200</v>
+        <v>-91.670199999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>33923.051714</v>
+        <v>33923.051714000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.423070</v>
+        <v>9.4230699999999992</v>
       </c>
       <c r="AG11" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.781800</v>
+        <v>-86.781800000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>33934.205250</v>
+        <v>33934.205249999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.426168</v>
+        <v>9.4261680000000005</v>
       </c>
       <c r="AL11" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.901200</v>
+        <v>-89.901200000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>33944.902964</v>
+        <v>33944.902964000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.429140</v>
+        <v>9.4291400000000003</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.726000</v>
+        <v>-101.726</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>33955.933526</v>
+        <v>33955.933526000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.432204</v>
+        <v>9.4322040000000005</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.980000</v>
+        <v>1252.98</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.102000</v>
+        <v>-121.102</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>33966.977415</v>
+        <v>33966.977415000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.435272</v>
+        <v>9.4352719999999994</v>
       </c>
       <c r="BA11" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.620000</v>
+        <v>-138.62</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>33977.641433</v>
+        <v>33977.641432999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.438234</v>
+        <v>9.4382339999999996</v>
       </c>
       <c r="BF11" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.996000</v>
+        <v>-220.99600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>33988.825689</v>
+        <v>33988.825688999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.441340</v>
+        <v>9.4413400000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1370.200000</v>
+        <v>1370.2</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.842000</v>
+        <v>-358.84199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>34000.063548</v>
+        <v>34000.063547999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.444462</v>
+        <v>9.4444619999999997</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.920000</v>
+        <v>1483.92</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-584.277000</v>
+        <v>-584.27700000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>34010.485983</v>
+        <v>34010.485982999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.447357</v>
+        <v>9.4473570000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.410000</v>
+        <v>1615.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-839.299000</v>
+        <v>-839.29899999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>34021.418015</v>
+        <v>34021.418015000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.450394</v>
+        <v>9.4503939999999993</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1768.270000</v>
+        <v>1768.27</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>34033.336672</v>
+        <v>34033.336671999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.453705</v>
+        <v>9.4537049999999994</v>
       </c>
       <c r="CE11" s="1">
-        <v>2188.690000</v>
+        <v>2188.69</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1795.610000</v>
+        <v>-1795.61</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>33860.954084</v>
+        <v>33860.954083999997</v>
       </c>
       <c r="B12" s="1">
-        <v>9.405821</v>
+        <v>9.4058209999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>1150.160000</v>
+        <v>1150.1600000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.507000</v>
+        <v>-261.50700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>33870.990135</v>
       </c>
       <c r="G12" s="1">
-        <v>9.408608</v>
+        <v>9.4086079999999992</v>
       </c>
       <c r="H12" s="1">
-        <v>1172.410000</v>
+        <v>1172.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-220.432000</v>
+        <v>-220.43199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>33881.796969</v>
+        <v>33881.796969000003</v>
       </c>
       <c r="L12" s="1">
-        <v>9.411610</v>
+        <v>9.4116099999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>1201.050000</v>
+        <v>1201.05</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.602000</v>
+        <v>-152.602</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>33892.320587</v>
+        <v>33892.320587000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.414533</v>
+        <v>9.4145330000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>1208.870000</v>
+        <v>1208.8699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.200000</v>
+        <v>-130.19999999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>33902.757404</v>
+        <v>33902.757404000004</v>
       </c>
       <c r="V12" s="1">
-        <v>9.417433</v>
+        <v>9.4174330000000008</v>
       </c>
       <c r="W12" s="1">
-        <v>1216.060000</v>
+        <v>1216.06</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.170000</v>
+        <v>-109.17</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>33913.225470</v>
+        <v>33913.225469999998</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.420340</v>
+        <v>9.4203399999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.624100</v>
+        <v>-91.624099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>33923.737185</v>
+        <v>33923.737184999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.423260</v>
+        <v>9.4232600000000009</v>
       </c>
       <c r="AG12" s="1">
-        <v>1228.280000</v>
+        <v>1228.28</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.798000</v>
+        <v>-86.798000000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>33934.553937</v>
+        <v>33934.553936999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.426265</v>
+        <v>9.4262650000000008</v>
       </c>
       <c r="AL12" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.904900</v>
+        <v>-89.904899999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>33945.265080</v>
+        <v>33945.265079999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.429240</v>
+        <v>9.4292400000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.764000</v>
+        <v>-101.764</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>33956.299045</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.432305</v>
+        <v>9.4323049999999995</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.960000</v>
+        <v>1252.96</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.084000</v>
+        <v>-121.084</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>33967.646518</v>
+        <v>33967.646518000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.435457</v>
+        <v>9.4354569999999995</v>
       </c>
       <c r="BA12" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.608000</v>
+        <v>-138.608</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>33978.307528</v>
+        <v>33978.307527999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.438419</v>
+        <v>9.4384189999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.012000</v>
+        <v>-221.012</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>33988.937788</v>
+        <v>33988.937788000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.441372</v>
+        <v>9.4413719999999994</v>
       </c>
       <c r="BK12" s="1">
-        <v>1370.190000</v>
+        <v>1370.19</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.840000</v>
+        <v>-358.84</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>34000.413227</v>
+        <v>34000.413226999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.444559</v>
+        <v>9.4445589999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.257000</v>
+        <v>-584.25699999999995</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>34010.898654</v>
+        <v>34010.898653999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.447472</v>
+        <v>9.4474719999999994</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.420000</v>
+        <v>1615.42</v>
       </c>
       <c r="BV12" s="1">
-        <v>-839.315000</v>
+        <v>-839.31500000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>34021.840400</v>
+        <v>34021.840400000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.450511</v>
+        <v>9.4505110000000005</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1768.200000</v>
+        <v>1768.2</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1118.060000</v>
+        <v>-1118.06</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>34033.918015</v>
+        <v>34033.918015000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.453866</v>
+        <v>9.4538659999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.920000</v>
+        <v>2189.92</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1796.690000</v>
+        <v>-1796.69</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>33861.232851</v>
+        <v>33861.232851000001</v>
       </c>
       <c r="B13" s="1">
-        <v>9.405898</v>
+        <v>9.4058980000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>1150.430000</v>
+        <v>1150.43</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.315000</v>
+        <v>-261.315</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>33871.335845</v>
+        <v>33871.335845000001</v>
       </c>
       <c r="G13" s="1">
-        <v>9.408704</v>
+        <v>9.4087040000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1172.570000</v>
+        <v>1172.57</v>
       </c>
       <c r="I13" s="1">
-        <v>-220.241000</v>
+        <v>-220.24100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>33882.142216</v>
       </c>
       <c r="L13" s="1">
-        <v>9.411706</v>
+        <v>9.4117060000000006</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.040000</v>
+        <v>1201.04</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.819000</v>
+        <v>-152.81899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>33892.668281</v>
+        <v>33892.668280999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.414630</v>
+        <v>9.4146300000000007</v>
       </c>
       <c r="R13" s="1">
-        <v>1208.890000</v>
+        <v>1208.8900000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.228000</v>
+        <v>-130.22800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>33903.445229</v>
+        <v>33903.445228999997</v>
       </c>
       <c r="V13" s="1">
         <v>9.417624</v>
       </c>
       <c r="W13" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.234000</v>
+        <v>-109.23399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>33913.927807</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.420536</v>
+        <v>9.4205360000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1223.670000</v>
+        <v>1223.67</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.598900</v>
+        <v>-91.5989</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>33924.080911</v>
+        <v>33924.080910999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.423356</v>
+        <v>9.4233560000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1228.260000</v>
+        <v>1228.26</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.747200</v>
+        <v>-86.747200000000007</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33934.899649</v>
+        <v>33934.899648999999</v>
       </c>
       <c r="AK13" s="1">
         <v>9.426361</v>
       </c>
       <c r="AL13" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.892300</v>
+        <v>-89.892300000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>33945.624652</v>
+        <v>33945.624651999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.429340</v>
+        <v>9.4293399999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.758000</v>
+        <v>-101.758</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>33956.975620</v>
+        <v>33956.975619999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.432493</v>
+        <v>9.4324929999999991</v>
       </c>
       <c r="AV13" s="1">
-        <v>1253.010000</v>
+        <v>1253.01</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.090000</v>
+        <v>-121.09</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>33968.054764</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.435571</v>
+        <v>9.4355709999999995</v>
       </c>
       <c r="BA13" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.606000</v>
+        <v>-138.60599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>33978.726190</v>
+        <v>33978.726190000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.438535</v>
+        <v>9.4385349999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.015000</v>
+        <v>-221.01499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>33989.300889</v>
+        <v>33989.300888999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.441472</v>
+        <v>9.4414719999999992</v>
       </c>
       <c r="BK13" s="1">
-        <v>1370.230000</v>
+        <v>1370.23</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.763000</v>
+        <v>-358.76299999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>34000.812537</v>
+        <v>34000.812536999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.444670</v>
+        <v>9.4446700000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-584.280000</v>
+        <v>-584.28</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>34011.331661</v>
+        <v>34011.331660999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.447592</v>
+        <v>9.4475920000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.520000</v>
+        <v>1615.52</v>
       </c>
       <c r="BV13" s="1">
-        <v>-839.145000</v>
+        <v>-839.14499999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>34022.294270</v>
+        <v>34022.294269999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.450637</v>
+        <v>9.4506370000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1768.340000</v>
+        <v>1768.34</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1118.180000</v>
+        <v>-1118.18</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>34034.320735</v>
+        <v>34034.320735000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.453978</v>
+        <v>9.4539779999999993</v>
       </c>
       <c r="CE13" s="1">
-        <v>2191.130000</v>
+        <v>2191.13</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1795.170000</v>
+        <v>-1795.17</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>33861.570150</v>
+        <v>33861.57015</v>
       </c>
       <c r="B14" s="1">
-        <v>9.405992</v>
+        <v>9.4059919999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>1150.730000</v>
+        <v>1150.73</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.370000</v>
+        <v>-261.37</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>33871.679574</v>
+        <v>33871.679574000002</v>
       </c>
       <c r="G14" s="1">
-        <v>9.408800</v>
+        <v>9.4087999999999994</v>
       </c>
       <c r="H14" s="1">
-        <v>1173.040000</v>
+        <v>1173.04</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.693000</v>
+        <v>-219.69300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>33882.835136</v>
+        <v>33882.835136000002</v>
       </c>
       <c r="L14" s="1">
         <v>9.411899</v>
       </c>
       <c r="M14" s="1">
-        <v>1201.200000</v>
+        <v>1201.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.656000</v>
+        <v>-152.65600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>33893.365656</v>
+        <v>33893.365656000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.414824</v>
+        <v>9.4148239999999994</v>
       </c>
       <c r="R14" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.324000</v>
+        <v>-130.32400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>33903.787595</v>
+        <v>33903.787595000002</v>
       </c>
       <c r="V14" s="1">
         <v>9.417719</v>
       </c>
       <c r="W14" s="1">
-        <v>1216.140000</v>
+        <v>1216.1400000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.291000</v>
+        <v>-109.291</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>33914.273061</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.420631</v>
+        <v>9.4206310000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1223.610000</v>
+        <v>1223.6099999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.694900</v>
+        <v>-91.694900000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>33924.425137</v>
+        <v>33924.425136999998</v>
       </c>
       <c r="AF14" s="1">
         <v>9.423451</v>
       </c>
       <c r="AG14" s="1">
-        <v>1228.190000</v>
+        <v>1228.19</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.757500</v>
+        <v>-86.757499999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33935.582640</v>
+        <v>33935.582640000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.426551</v>
+        <v>9.4265509999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.881300</v>
+        <v>-89.881299999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>33946.316067</v>
@@ -3685,3219 +4101,3220 @@
         <v>9.429532</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.741000</v>
+        <v>-101.741</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>33957.428967</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.432619</v>
+        <v>9.4326190000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>1253.010000</v>
+        <v>1253.01</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.086000</v>
+        <v>-121.086</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>33968.439279</v>
+        <v>33968.439278999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.435678</v>
+        <v>9.4356779999999993</v>
       </c>
       <c r="BA14" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.597000</v>
+        <v>-138.59700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>33979.114055</v>
+        <v>33979.114054999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.438643</v>
+        <v>9.4386430000000008</v>
       </c>
       <c r="BF14" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.015000</v>
+        <v>-221.01499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>33989.675338</v>
+        <v>33989.675338000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.441576</v>
+        <v>9.4415759999999995</v>
       </c>
       <c r="BK14" s="1">
-        <v>1370.220000</v>
+        <v>1370.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.808000</v>
+        <v>-358.80799999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>34001.233609</v>
+        <v>34001.233609000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.444787</v>
+        <v>9.4447869999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.930000</v>
+        <v>1483.93</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.269000</v>
+        <v>-584.26900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>34011.757259</v>
+        <v>34011.757258999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.447710</v>
+        <v>9.4477100000000007</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.640000</v>
+        <v>1615.64</v>
       </c>
       <c r="BV14" s="1">
-        <v>-839.197000</v>
+        <v>-839.197</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>34022.741133</v>
+        <v>34022.741133000003</v>
       </c>
       <c r="BY14" s="1">
         <v>9.450761</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1768.290000</v>
+        <v>1768.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1118.260000</v>
+        <v>-1118.26</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>34034.840575</v>
+        <v>34034.840575000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.454122</v>
+        <v>9.4541219999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2190.850000</v>
+        <v>2190.85</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1796.690000</v>
+        <v>-1796.69</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>33861.913843</v>
+        <v>33861.913843000002</v>
       </c>
       <c r="B15" s="1">
-        <v>9.406087</v>
+        <v>9.4060869999999994</v>
       </c>
       <c r="C15" s="1">
-        <v>1150.560000</v>
+        <v>1150.56</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.232000</v>
+        <v>-261.23200000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>33872.366037</v>
       </c>
       <c r="G15" s="1">
-        <v>9.408991</v>
+        <v>9.4089910000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1173.110000</v>
+        <v>1173.1099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-220.089000</v>
+        <v>-220.089</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>33883.178854</v>
+        <v>33883.178853999998</v>
       </c>
       <c r="L15" s="1">
         <v>9.411994</v>
       </c>
       <c r="M15" s="1">
-        <v>1200.710000</v>
+        <v>1200.71</v>
       </c>
       <c r="N15" s="1">
-        <v>-153.001000</v>
+        <v>-153.001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>33893.711369</v>
+        <v>33893.711368999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.414920</v>
+        <v>9.4149200000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>1208.850000</v>
+        <v>1208.8499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.293000</v>
+        <v>-130.29300000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>33904.131818</v>
+        <v>33904.131818000002</v>
       </c>
       <c r="V15" s="1">
-        <v>9.417814</v>
+        <v>9.4178139999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.186000</v>
+        <v>-109.18600000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>33914.612284</v>
+        <v>33914.612284000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.420726</v>
+        <v>9.4207260000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.650000</v>
+        <v>1223.6500000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.685000</v>
+        <v>-91.685000000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>33925.070926</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.423631</v>
+        <v>9.4236310000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.785200</v>
+        <v>-86.785200000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>33935.946741</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.426652</v>
+        <v>9.4266520000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.934900</v>
+        <v>-89.934899999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>33946.726753</v>
+        <v>33946.726753000003</v>
       </c>
       <c r="AP15" s="1">
         <v>9.429646</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.767000</v>
+        <v>-101.767</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>33957.794517</v>
+        <v>33957.794517000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.432721</v>
+        <v>9.4327210000000008</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.980000</v>
+        <v>1252.98</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.095000</v>
+        <v>-121.095</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>33968.797236</v>
+        <v>33968.797235999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.435777</v>
+        <v>9.4357769999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.582000</v>
+        <v>-138.58199999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>33979.475634</v>
+        <v>33979.475634000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.438743</v>
+        <v>9.4387430000000005</v>
       </c>
       <c r="BF15" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.016000</v>
+        <v>-221.01599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>33990.093505</v>
+        <v>33990.093504999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.441693</v>
+        <v>9.4416930000000008</v>
       </c>
       <c r="BK15" s="1">
-        <v>1370.220000</v>
+        <v>1370.22</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.830000</v>
+        <v>-358.83</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>34001.629913</v>
+        <v>34001.629912999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.444897</v>
+        <v>9.4448969999999992</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.268000</v>
+        <v>-584.26800000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>34012.168907</v>
+        <v>34012.168906999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.447825</v>
+        <v>9.4478249999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV15" s="1">
-        <v>-839.156000</v>
+        <v>-839.15599999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>34023.174140</v>
+        <v>34023.174140000003</v>
       </c>
       <c r="BY15" s="1">
         <v>9.450882</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1768.260000</v>
+        <v>1768.26</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1118.190000</v>
+        <v>-1118.19</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>34035.392590</v>
+        <v>34035.392590000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.454276</v>
+        <v>9.4542760000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.140000</v>
+        <v>2189.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1796.790000</v>
+        <v>-1796.79</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>33862.600801</v>
+        <v>33862.600801000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.406278</v>
+        <v>9.4062780000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1150.450000</v>
+        <v>1150.45</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.455000</v>
+        <v>-261.45499999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>33872.711285</v>
+        <v>33872.711284999998</v>
       </c>
       <c r="G16" s="1">
-        <v>9.409086</v>
+        <v>9.4090860000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1173.090000</v>
+        <v>1173.0899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-220.361000</v>
+        <v>-220.36099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>33883.523077</v>
+        <v>33883.523076999998</v>
       </c>
       <c r="L16" s="1">
-        <v>9.412090</v>
+        <v>9.4120899999999992</v>
       </c>
       <c r="M16" s="1">
-        <v>1201.090000</v>
+        <v>1201.0899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.883000</v>
+        <v>-152.88300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>33894.052119</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.415014</v>
+        <v>9.4150139999999993</v>
       </c>
       <c r="R16" s="1">
-        <v>1208.810000</v>
+        <v>1208.81</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.231000</v>
+        <v>-130.23099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>33904.788025</v>
+        <v>33904.788025000002</v>
       </c>
       <c r="V16" s="1">
-        <v>9.417997</v>
+        <v>9.4179969999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.239000</v>
+        <v>-109.239</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>33915.048763</v>
+        <v>33915.048762999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.420847</v>
+        <v>9.4208470000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.595200</v>
+        <v>-91.595200000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>33925.454830</v>
+        <v>33925.454830000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.423737</v>
+        <v>9.4237369999999991</v>
       </c>
       <c r="AG16" s="1">
-        <v>1228.230000</v>
+        <v>1228.23</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.774200</v>
+        <v>-86.774199999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>33936.295422</v>
+        <v>33936.295422000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.426749</v>
+        <v>9.4267489999999992</v>
       </c>
       <c r="AL16" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.909200</v>
+        <v>-89.909199999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>33947.084897</v>
+        <v>33947.084897000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.429746</v>
+        <v>9.4297459999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.751000</v>
+        <v>-101.751</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>33958.160531</v>
+        <v>33958.160531000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.432822</v>
+        <v>9.4328219999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>1253.000000</v>
+        <v>1253</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.082000</v>
+        <v>-121.08199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>33969.220819</v>
+        <v>33969.220819000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.435895</v>
+        <v>9.4358950000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.598000</v>
+        <v>-138.59800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>33979.896214</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.438860</v>
+        <v>9.43886</v>
       </c>
       <c r="BF16" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.019000</v>
+        <v>-221.01900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>33990.426280</v>
+        <v>33990.42628</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.441785</v>
+        <v>9.4417849999999994</v>
       </c>
       <c r="BK16" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.845000</v>
+        <v>-358.84500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>34002.053994</v>
+        <v>34002.053994000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.445015</v>
+        <v>9.4450149999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.930000</v>
+        <v>1483.93</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-584.294000</v>
+        <v>-584.29399999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>34012.599961</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.447944</v>
+        <v>9.4479439999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.840000</v>
+        <v>1615.84</v>
       </c>
       <c r="BV16" s="1">
-        <v>-839.174000</v>
+        <v>-839.17399999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>34023.593297</v>
+        <v>34023.593296999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.450998</v>
+        <v>9.4509980000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1768.440000</v>
+        <v>1768.44</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1118.250000</v>
+        <v>-1118.25</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>34035.924301</v>
+        <v>34035.924300999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.454423</v>
+        <v>9.4544230000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.800000</v>
+        <v>2190.8000000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1795.530000</v>
+        <v>-1795.53</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>33862.937618</v>
+        <v>33862.937618000004</v>
       </c>
       <c r="B17" s="1">
-        <v>9.406372</v>
+        <v>9.4063719999999993</v>
       </c>
       <c r="C17" s="1">
-        <v>1150.550000</v>
+        <v>1150.55</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.030000</v>
+        <v>-261.02999999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>33873.058947</v>
+        <v>33873.058946999998</v>
       </c>
       <c r="G17" s="1">
-        <v>9.409183</v>
+        <v>9.4091830000000005</v>
       </c>
       <c r="H17" s="1">
-        <v>1173.140000</v>
+        <v>1173.1400000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-220.516000</v>
+        <v>-220.51599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>33884.176276</v>
+        <v>33884.176275999998</v>
       </c>
       <c r="L17" s="1">
-        <v>9.412271</v>
+        <v>9.4122710000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>1201.040000</v>
+        <v>1201.04</v>
       </c>
       <c r="N17" s="1">
-        <v>-152.860000</v>
+        <v>-152.86000000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>33894.710806</v>
+        <v>33894.710806000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.415197</v>
+        <v>9.4151969999999992</v>
       </c>
       <c r="R17" s="1">
-        <v>1208.780000</v>
+        <v>1208.78</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.247000</v>
+        <v>-130.24700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>33905.161030</v>
+        <v>33905.161030000003</v>
       </c>
       <c r="V17" s="1">
-        <v>9.418100</v>
+        <v>9.4181000000000008</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.960000</v>
+        <v>1215.96</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.158000</v>
+        <v>-109.158</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>33915.320571</v>
+        <v>33915.320570999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.420922</v>
+        <v>9.4209219999999991</v>
       </c>
       <c r="AB17" s="1">
-        <v>1223.670000</v>
+        <v>1223.67</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.699700</v>
+        <v>-91.699700000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>33925.801069</v>
+        <v>33925.801069000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.423834</v>
+        <v>9.4238339999999994</v>
       </c>
       <c r="AG17" s="1">
-        <v>1228.240000</v>
+        <v>1228.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.725800</v>
+        <v>-86.725800000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>33936.646094</v>
+        <v>33936.646094000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.426846</v>
+        <v>9.4268459999999994</v>
       </c>
       <c r="AL17" s="1">
-        <v>1235.210000</v>
+        <v>1235.21</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.923700</v>
+        <v>-89.923699999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>33947.448930</v>
+        <v>33947.448929999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.429847</v>
+        <v>9.4298470000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.722000</v>
+        <v>-101.72199999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>33958.581138</v>
+        <v>33958.581138000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.432939</v>
+        <v>9.4329389999999993</v>
       </c>
       <c r="AV17" s="1">
-        <v>1253.010000</v>
+        <v>1253.01</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.089000</v>
+        <v>-121.089</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>33969.514980</v>
+        <v>33969.51498</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.435976</v>
+        <v>9.4359760000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.618000</v>
+        <v>-138.61799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>33980.195302</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.438943</v>
+        <v>9.4389430000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.996000</v>
+        <v>-220.99600000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>33990.826087</v>
+        <v>33990.826087000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.441896</v>
+        <v>9.4418959999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.828000</v>
+        <v>-358.82799999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>34002.450297</v>
+        <v>34002.450297000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.445125</v>
+        <v>9.4451250000000009</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.990000</v>
+        <v>1483.99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-584.321000</v>
+        <v>-584.32100000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>34013.024506</v>
+        <v>34013.024506000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.448062</v>
+        <v>9.4480620000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.930000</v>
+        <v>1615.93</v>
       </c>
       <c r="BV17" s="1">
-        <v>-839.298000</v>
+        <v>-839.298</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>34024.015851</v>
+        <v>34024.015850999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.451116</v>
+        <v>9.4511160000000007</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1768.250000</v>
+        <v>1768.25</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>34036.441167</v>
+        <v>34036.441166999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.454567</v>
+        <v>9.4545670000000008</v>
       </c>
       <c r="CE17" s="1">
-        <v>2189.790000</v>
+        <v>2189.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1794.520000</v>
+        <v>-1794.52</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>33863.283296</v>
+        <v>33863.283296000001</v>
       </c>
       <c r="B18" s="1">
-        <v>9.406468</v>
+        <v>9.4064680000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>1150.190000</v>
+        <v>1150.19</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.390000</v>
+        <v>-261.39</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>33873.708242</v>
+        <v>33873.708242000001</v>
       </c>
       <c r="G18" s="1">
-        <v>9.409363</v>
+        <v>9.4093630000000008</v>
       </c>
       <c r="H18" s="1">
-        <v>1172.350000</v>
+        <v>1172.3499999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-220.781000</v>
+        <v>-220.78100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>33884.562661</v>
+        <v>33884.562661000004</v>
       </c>
       <c r="L18" s="1">
-        <v>9.412379</v>
+        <v>9.4123789999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.090000</v>
+        <v>1201.0899999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.524000</v>
+        <v>-152.524</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>33895.114550</v>
+        <v>33895.114549999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.415310</v>
+        <v>9.4153099999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1208.860000</v>
+        <v>1208.8599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.284000</v>
+        <v>-130.28399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>33905.505736</v>
+        <v>33905.505735999999</v>
       </c>
       <c r="V18" s="1">
         <v>9.418196</v>
       </c>
       <c r="W18" s="1">
-        <v>1216.130000</v>
+        <v>1216.1300000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.206000</v>
+        <v>-109.206</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>33915.667803</v>
+        <v>33915.667802999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.421019</v>
+        <v>9.4210189999999994</v>
       </c>
       <c r="AB18" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.510100</v>
+        <v>-91.510099999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>33926.149726</v>
+        <v>33926.149726000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.423930</v>
+        <v>9.4239300000000004</v>
       </c>
       <c r="AG18" s="1">
-        <v>1228.220000</v>
+        <v>1228.22</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.746600</v>
+        <v>-86.746600000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>33937.072126</v>
+        <v>33937.072125999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.426964</v>
+        <v>9.4269639999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1235.250000</v>
+        <v>1235.25</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.926800</v>
+        <v>-89.9268</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>33947.877472</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.429966</v>
+        <v>9.4299660000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.756000</v>
+        <v>-101.756</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>33958.889179</v>
+        <v>33958.889178999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.433025</v>
+        <v>9.4330250000000007</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.970000</v>
+        <v>1252.97</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.106000</v>
+        <v>-121.10599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>33969.876073</v>
+        <v>33969.876072999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.436077</v>
+        <v>9.4360769999999992</v>
       </c>
       <c r="BA18" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.627000</v>
+        <v>-138.62700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>33980.555398</v>
+        <v>33980.555397999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.439043</v>
+        <v>9.4390429999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1301.140000</v>
+        <v>1301.1400000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.997000</v>
+        <v>-220.99700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>33991.204503</v>
+        <v>33991.204503000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.442001</v>
+        <v>9.4420009999999994</v>
       </c>
       <c r="BK18" s="1">
-        <v>1370.190000</v>
+        <v>1370.19</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.839000</v>
+        <v>-358.839</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>34002.867431</v>
+        <v>34002.867430999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.445241</v>
+        <v>9.4452409999999993</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.920000</v>
+        <v>1483.92</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.266000</v>
+        <v>-584.26599999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>34013.440682</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.448178</v>
+        <v>9.4481780000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1616.030000</v>
+        <v>1616.03</v>
       </c>
       <c r="BV18" s="1">
-        <v>-839.262000</v>
+        <v>-839.26199999999994</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>34024.442939</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.451234</v>
+        <v>9.4512339999999995</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1768.150000</v>
+        <v>1768.15</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1118.280000</v>
+        <v>-1118.28</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>34036.958956</v>
+        <v>34036.958956000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.454711</v>
+        <v>9.4547109999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>2188.170000</v>
+        <v>2188.17</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1795.530000</v>
+        <v>-1795.53</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>33863.835840</v>
+        <v>33863.83584</v>
       </c>
       <c r="B19" s="1">
-        <v>9.406621</v>
+        <v>9.4066209999999995</v>
       </c>
       <c r="C19" s="1">
-        <v>1150.630000</v>
+        <v>1150.6300000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.206000</v>
+        <v>-261.20600000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>33874.093602</v>
+        <v>33874.093602000001</v>
       </c>
       <c r="G19" s="1">
-        <v>9.409470</v>
+        <v>9.4094700000000007</v>
       </c>
       <c r="H19" s="1">
-        <v>1173.270000</v>
+        <v>1173.27</v>
       </c>
       <c r="I19" s="1">
-        <v>-220.086000</v>
+        <v>-220.08600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>33884.907379</v>
+        <v>33884.907378999997</v>
       </c>
       <c r="L19" s="1">
-        <v>9.412474</v>
+        <v>9.4124739999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.880000</v>
+        <v>1200.8800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-153.043000</v>
+        <v>-153.04300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>33895.457783</v>
+        <v>33895.457782999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.415405</v>
+        <v>9.4154049999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1208.840000</v>
+        <v>1208.8399999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.319000</v>
+        <v>-130.31899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>33905.849997</v>
+        <v>33905.849996999998</v>
       </c>
       <c r="V19" s="1">
-        <v>9.418292</v>
+        <v>9.4182919999999992</v>
       </c>
       <c r="W19" s="1">
-        <v>1216.010000</v>
+        <v>1216.01</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.239000</v>
+        <v>-109.239</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>33916.097802</v>
+        <v>33916.097801999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.421138</v>
+        <v>9.4211379999999991</v>
       </c>
       <c r="AB19" s="1">
-        <v>1223.440000</v>
+        <v>1223.44</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.584000</v>
+        <v>-91.584000000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>33926.591661</v>
+        <v>33926.591660999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.424053</v>
+        <v>9.4240530000000007</v>
       </c>
       <c r="AG19" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.782100</v>
+        <v>-86.7821</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>33937.350878</v>
+        <v>33937.350877999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.427042</v>
+        <v>9.4270420000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.940500</v>
+        <v>-89.9405</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>33948.170642</v>
+        <v>33948.170641999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.430047</v>
+        <v>9.4300470000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1243.100000</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.733000</v>
+        <v>-101.733</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>33959.252224</v>
+        <v>33959.252224000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.433126</v>
+        <v>9.4331259999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1253.020000</v>
+        <v>1253.02</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.056000</v>
+        <v>-121.056</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>33970.235667</v>
+        <v>33970.235667000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.436177</v>
+        <v>9.4361770000000007</v>
       </c>
       <c r="BA19" s="1">
-        <v>1261.380000</v>
+        <v>1261.3800000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.634000</v>
+        <v>-138.63399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>33980.919497</v>
+        <v>33980.919497000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.439144</v>
+        <v>9.4391440000000006</v>
       </c>
       <c r="BF19" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.019000</v>
+        <v>-221.01900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>33991.952010</v>
+        <v>33991.952010000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.442209</v>
+        <v>9.4422090000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1370.220000</v>
+        <v>1370.22</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.775000</v>
+        <v>-358.77499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>34003.268198</v>
+        <v>34003.268197999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.445352</v>
+        <v>9.4453519999999997</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.890000</v>
+        <v>1483.89</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.233000</v>
+        <v>-584.23299999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>34013.856794</v>
+        <v>34013.856793999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.448294</v>
+        <v>9.4482940000000006</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.150000</v>
+        <v>1616.15</v>
       </c>
       <c r="BV19" s="1">
-        <v>-839.443000</v>
+        <v>-839.44299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>34024.858591</v>
+        <v>34024.858590999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.451350</v>
+        <v>9.4513499999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1768.260000</v>
+        <v>1768.26</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1118.210000</v>
+        <v>-1118.21</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>34037.787802</v>
+        <v>34037.787801999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.454941</v>
+        <v>9.4549409999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>2189.910000</v>
+        <v>2189.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1796.890000</v>
+        <v>-1796.89</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>33863.967787</v>
+        <v>33863.967787000001</v>
       </c>
       <c r="B20" s="1">
-        <v>9.406658</v>
+        <v>9.4066580000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1150.190000</v>
+        <v>1150.19</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.069000</v>
+        <v>-261.06900000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>33874.437826</v>
+        <v>33874.437826000001</v>
       </c>
       <c r="G20" s="1">
-        <v>9.409566</v>
+        <v>9.4095659999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1172.130000</v>
+        <v>1172.1300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.612000</v>
+        <v>-219.61199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>33885.252627</v>
+        <v>33885.252627000002</v>
       </c>
       <c r="L20" s="1">
-        <v>9.412570</v>
+        <v>9.4125700000000005</v>
       </c>
       <c r="M20" s="1">
-        <v>1201.150000</v>
+        <v>1201.1500000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.724000</v>
+        <v>-152.72399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>33895.805974</v>
+        <v>33895.805974000003</v>
       </c>
       <c r="Q20" s="1">
         <v>9.415502</v>
       </c>
       <c r="R20" s="1">
-        <v>1208.780000</v>
+        <v>1208.78</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.318000</v>
+        <v>-130.31800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>33906.281976</v>
+        <v>33906.281975999998</v>
       </c>
       <c r="V20" s="1">
         <v>9.418412</v>
       </c>
       <c r="W20" s="1">
-        <v>1216.100000</v>
+        <v>1216.0999999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.132000</v>
+        <v>-109.13200000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>33916.376093</v>
+        <v>33916.376092999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.421216</v>
+        <v>9.4212159999999994</v>
       </c>
       <c r="AB20" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.589400</v>
+        <v>-91.589399999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>33926.849612</v>
+        <v>33926.849611999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.424125</v>
+        <v>9.4241250000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.755300</v>
+        <v>-86.755300000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33937.700557</v>
+        <v>33937.700556999996</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.427139</v>
+        <v>9.4271390000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>1235.260000</v>
+        <v>1235.26</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.930600</v>
+        <v>-89.930599999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>33948.517311</v>
+        <v>33948.517311000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.430144</v>
+        <v>9.4301440000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1243.130000</v>
+        <v>1243.1300000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.753000</v>
+        <v>-101.753</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>33959.617777</v>
+        <v>33959.617776999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.433227</v>
+        <v>9.4332270000000005</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.980000</v>
+        <v>1252.98</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.056000</v>
+        <v>-121.056</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>33970.947393</v>
+        <v>33970.947393000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.436374</v>
+        <v>9.4363740000000007</v>
       </c>
       <c r="BA20" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.605000</v>
+        <v>-138.60499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>33981.642133</v>
+        <v>33981.642133000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.439345</v>
+        <v>9.4393449999999994</v>
       </c>
       <c r="BF20" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.008000</v>
+        <v>-221.00800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>33992.325959</v>
+        <v>33992.325959000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.442313</v>
+        <v>9.4423130000000004</v>
       </c>
       <c r="BK20" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.845000</v>
+        <v>-358.84500000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>34003.687814</v>
+        <v>34003.687813999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.445469</v>
+        <v>9.4454689999999992</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-584.274000</v>
+        <v>-584.274</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>34014.297738</v>
+        <v>34014.297738000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.448416</v>
+        <v>9.4484159999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.200000</v>
+        <v>1616.2</v>
       </c>
       <c r="BV20" s="1">
-        <v>-839.496000</v>
+        <v>-839.49599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>34025.606057</v>
+        <v>34025.606056999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.451557</v>
+        <v>9.4515569999999993</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1768.320000</v>
+        <v>1768.32</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1118.150000</v>
+        <v>-1118.1500000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>34037.993609</v>
+        <v>34037.993608999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.454998</v>
+        <v>9.4549979999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.030000</v>
+        <v>2191.0300000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1795.370000</v>
+        <v>-1795.37</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>33864.309054</v>
+        <v>33864.309053999998</v>
       </c>
       <c r="B21" s="1">
-        <v>9.406753</v>
+        <v>9.4067530000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1150.630000</v>
+        <v>1150.6300000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.299000</v>
+        <v>-261.29899999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>33874.785055</v>
       </c>
       <c r="G21" s="1">
-        <v>9.409663</v>
+        <v>9.4096630000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1172.180000</v>
+        <v>1172.18</v>
       </c>
       <c r="I21" s="1">
-        <v>-220.449000</v>
+        <v>-220.44900000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>33885.664307</v>
+        <v>33885.664306999999</v>
       </c>
       <c r="L21" s="1">
-        <v>9.412685</v>
+        <v>9.4126849999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.210000</v>
+        <v>1201.21</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.961000</v>
+        <v>-152.96100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>33896.235014</v>
+        <v>33896.235013999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.415621</v>
+        <v>9.4156209999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1208.760000</v>
+        <v>1208.76</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.323000</v>
+        <v>-130.32300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>33906.555271</v>
+        <v>33906.555270999997</v>
       </c>
       <c r="V21" s="1">
         <v>9.418488</v>
       </c>
       <c r="W21" s="1">
-        <v>1216.090000</v>
+        <v>1216.0899999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.151000</v>
+        <v>-109.151</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>33916.722265</v>
+        <v>33916.722264999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.421312</v>
+        <v>9.4213120000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1223.480000</v>
+        <v>1223.48</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.651500</v>
+        <v>-91.651499999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>33927.193840</v>
+        <v>33927.19384</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.424221</v>
+        <v>9.4242209999999993</v>
       </c>
       <c r="AG21" s="1">
-        <v>1228.210000</v>
+        <v>1228.21</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.802000</v>
+        <v>-86.802000000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>33938.048285</v>
+        <v>33938.048284999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.427236</v>
+        <v>9.4272360000000006</v>
       </c>
       <c r="AL21" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.921400</v>
+        <v>-89.921400000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>33948.888355</v>
+        <v>33948.888355000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.430247</v>
+        <v>9.4302469999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1243.080000</v>
+        <v>1243.08</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.772000</v>
+        <v>-101.77200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>33960.343921</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.433429</v>
+        <v>9.4334290000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.990000</v>
+        <v>1252.99</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.066000</v>
+        <v>-121.066</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>33971.310497</v>
+        <v>33971.310496999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.436475</v>
+        <v>9.4364749999999997</v>
       </c>
       <c r="BA21" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.605000</v>
+        <v>-138.60499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>33982.030540</v>
+        <v>33982.03054</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.439453</v>
+        <v>9.4394530000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.995000</v>
+        <v>-220.995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>33992.701462</v>
+        <v>33992.701461999997</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.442417</v>
+        <v>9.4424170000000007</v>
       </c>
       <c r="BK21" s="1">
-        <v>1370.200000</v>
+        <v>1370.2</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.817000</v>
+        <v>-358.81700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>34004.390149</v>
+        <v>34004.390148999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.445664</v>
+        <v>9.4456640000000007</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.980000</v>
+        <v>1483.98</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-584.281000</v>
+        <v>-584.28099999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>34015.011015</v>
+        <v>34015.011014999996</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.448614</v>
+        <v>9.4486139999999992</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV21" s="1">
-        <v>-839.632000</v>
+        <v>-839.63199999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>34025.751850</v>
+        <v>34025.751850000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.451598</v>
+        <v>9.4515980000000006</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1768.150000</v>
+        <v>1768.15</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1118.170000</v>
+        <v>-1118.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>34038.512425</v>
+        <v>34038.512425000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.455142</v>
+        <v>9.4551420000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.190000</v>
+        <v>2191.19</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1795.430000</v>
+        <v>-1795.43</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>33864.724670</v>
+        <v>33864.724670000003</v>
       </c>
       <c r="B22" s="1">
-        <v>9.406868</v>
+        <v>9.4068679999999993</v>
       </c>
       <c r="C22" s="1">
-        <v>1150.590000</v>
+        <v>1150.5899999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.437000</v>
+        <v>-261.43700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>33875.203685</v>
       </c>
       <c r="G22" s="1">
-        <v>9.409779</v>
+        <v>9.4097790000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1172.620000</v>
+        <v>1172.6199999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-220.608000</v>
+        <v>-220.608</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>33885.946003</v>
+        <v>33885.946002999997</v>
       </c>
       <c r="L22" s="1">
         <v>9.412763</v>
       </c>
       <c r="M22" s="1">
-        <v>1200.710000</v>
+        <v>1200.71</v>
       </c>
       <c r="N22" s="1">
-        <v>-153.028000</v>
+        <v>-153.02799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>33896.513268</v>
+        <v>33896.513268000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.415698</v>
+        <v>9.4156980000000008</v>
       </c>
       <c r="R22" s="1">
-        <v>1208.690000</v>
+        <v>1208.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.311000</v>
+        <v>-130.31100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>33906.900486</v>
+        <v>33906.900485999999</v>
       </c>
       <c r="V22" s="1">
-        <v>9.418583</v>
+        <v>9.4185829999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.196000</v>
+        <v>-109.196</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>33917.074958</v>
+        <v>33917.074957999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.421410</v>
+        <v>9.4214099999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1223.630000</v>
+        <v>1223.6300000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.560100</v>
+        <v>-91.560100000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>33927.538525</v>
+        <v>33927.538525000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.424316</v>
+        <v>9.4243159999999992</v>
       </c>
       <c r="AG22" s="1">
-        <v>1228.230000</v>
+        <v>1228.23</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.772100</v>
+        <v>-86.772099999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>33938.742651</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.427429</v>
+        <v>9.4274290000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1235.240000</v>
+        <v>1235.24</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.893900</v>
+        <v>-89.893900000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>33949.657638</v>
+        <v>33949.657637999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.430460</v>
+        <v>9.4304600000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>33960.736783</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.433538</v>
+        <v>9.4335380000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>1253.000000</v>
+        <v>1253</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.099000</v>
+        <v>-121.099</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>33971.672294</v>
+        <v>33971.672294000004</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.436576</v>
+        <v>9.4365760000000005</v>
       </c>
       <c r="BA22" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.614000</v>
+        <v>-138.614</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>33982.414403</v>
+        <v>33982.414403000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.439560</v>
+        <v>9.4395600000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1301.140000</v>
+        <v>1301.1400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.003000</v>
+        <v>-221.00299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>33993.404788</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.442612</v>
+        <v>9.4426120000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1370.210000</v>
+        <v>1370.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.837000</v>
+        <v>-358.83699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>34004.505717</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.445696</v>
+        <v>9.4456959999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.302000</v>
+        <v>-584.30200000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>34015.142456</v>
+        <v>34015.142456000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.448651</v>
+        <v>9.4486509999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.200000</v>
+        <v>1616.2</v>
       </c>
       <c r="BV22" s="1">
-        <v>-839.650000</v>
+        <v>-839.65</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>34026.178444</v>
+        <v>34026.178443999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.451716</v>
+        <v>9.4517159999999993</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1768.190000</v>
+        <v>1768.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1118.160000</v>
+        <v>-1118.1600000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>34039.061993</v>
+        <v>34039.061993000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.455295</v>
+        <v>9.4552949999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>2190.590000</v>
+        <v>2190.59</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1796.500000</v>
+        <v>-1796.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>33865.023799</v>
+        <v>33865.023799000002</v>
       </c>
       <c r="B23" s="1">
-        <v>9.406951</v>
+        <v>9.4069509999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>1150.480000</v>
+        <v>1150.48</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.199000</v>
+        <v>-261.19900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>33875.475493</v>
+        <v>33875.475492999998</v>
       </c>
       <c r="G23" s="1">
-        <v>9.409854</v>
+        <v>9.4098539999999993</v>
       </c>
       <c r="H23" s="1">
-        <v>1173.150000</v>
+        <v>1173.1500000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-220.199000</v>
+        <v>-220.19900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>33886.289730</v>
+        <v>33886.289729999997</v>
       </c>
       <c r="L23" s="1">
-        <v>9.412858</v>
+        <v>9.4128579999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1200.880000</v>
+        <v>1200.8800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-153.005000</v>
+        <v>-153.005</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>33896.860963</v>
+        <v>33896.860962999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.415795</v>
+        <v>9.4157949999999992</v>
       </c>
       <c r="R23" s="1">
-        <v>1208.750000</v>
+        <v>1208.75</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.271000</v>
+        <v>-130.27099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>33907.243222</v>
+        <v>33907.243221999997</v>
       </c>
       <c r="V23" s="1">
-        <v>9.418679</v>
+        <v>9.4186789999999991</v>
       </c>
       <c r="W23" s="1">
-        <v>1216.030000</v>
+        <v>1216.03</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.221000</v>
+        <v>-109.221</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>33917.768824</v>
+        <v>33917.768823999999</v>
       </c>
       <c r="AA23" s="1">
         <v>9.421602</v>
       </c>
       <c r="AB23" s="1">
-        <v>1223.650000</v>
+        <v>1223.6500000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.442800</v>
+        <v>-91.442800000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>33928.226970</v>
+        <v>33928.226970000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.424507</v>
+        <v>9.4245070000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1228.190000</v>
+        <v>1228.19</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.750300</v>
+        <v>-86.750299999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>33939.092007</v>
+        <v>33939.092006999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.427526</v>
+        <v>9.4275260000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1235.230000</v>
+        <v>1235.23</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.906600</v>
+        <v>-89.906599999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>33949.992945</v>
+        <v>33949.992944999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.430554</v>
+        <v>9.4305540000000008</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.090000</v>
+        <v>1243.0899999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.748000</v>
+        <v>-101.748</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>33961.099359</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.433639</v>
+        <v>9.4336389999999994</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.960000</v>
+        <v>1252.96</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.093000</v>
+        <v>-121.093</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>33972.335201</v>
+        <v>33972.335201000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.436760</v>
+        <v>9.4367599999999996</v>
       </c>
       <c r="BA23" s="1">
-        <v>1261.360000</v>
+        <v>1261.3599999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.629000</v>
+        <v>-138.62899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>33983.070113</v>
+        <v>33983.070113000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.439742</v>
+        <v>9.4397420000000007</v>
       </c>
       <c r="BF23" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.046000</v>
+        <v>-221.04599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>33993.853160</v>
+        <v>33993.853159999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.442737</v>
+        <v>9.4427369999999993</v>
       </c>
       <c r="BK23" s="1">
-        <v>1370.270000</v>
+        <v>1370.27</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.839000</v>
+        <v>-358.839</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>34004.929797</v>
+        <v>34004.929796999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.445814</v>
+        <v>9.4458140000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.910000</v>
+        <v>1483.91</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.289000</v>
+        <v>-584.28899999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>34015.578406</v>
+        <v>34015.578406000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.448772</v>
+        <v>9.4487719999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.230000</v>
+        <v>1616.23</v>
       </c>
       <c r="BV23" s="1">
-        <v>-839.821000</v>
+        <v>-839.82100000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>34026.627784</v>
+        <v>34026.627783999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.451841</v>
+        <v>9.4518409999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1768.360000</v>
+        <v>1768.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1118.230000</v>
+        <v>-1118.23</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>34039.590726</v>
+        <v>34039.590726000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.455442</v>
+        <v>9.4554419999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>2190.460000</v>
+        <v>2190.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1794.480000</v>
+        <v>-1794.48</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>33865.366989</v>
+        <v>33865.366989000002</v>
       </c>
       <c r="B24" s="1">
-        <v>9.407046</v>
+        <v>9.4070459999999994</v>
       </c>
       <c r="C24" s="1">
-        <v>1150.600000</v>
+        <v>1150.5999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.300000</v>
+        <v>-261.3</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>33875.820207</v>
+        <v>33875.820206999997</v>
       </c>
       <c r="G24" s="1">
-        <v>9.409950</v>
+        <v>9.4099500000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>1173.730000</v>
+        <v>1173.73</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.972000</v>
+        <v>-219.97200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>33886.636434</v>
       </c>
       <c r="L24" s="1">
-        <v>9.412955</v>
+        <v>9.4129550000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1201.190000</v>
+        <v>1201.19</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.973000</v>
+        <v>-152.97300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>33897.210679</v>
+        <v>33897.210679000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.415892</v>
+        <v>9.4158919999999995</v>
       </c>
       <c r="R24" s="1">
-        <v>1208.660000</v>
+        <v>1208.6600000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.527000</v>
+        <v>-130.52699999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>33907.928695</v>
+        <v>33907.928695000002</v>
       </c>
       <c r="V24" s="1">
-        <v>9.418869</v>
+        <v>9.4188690000000008</v>
       </c>
       <c r="W24" s="1">
-        <v>1216.080000</v>
+        <v>1216.08</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>33918.118007</v>
+        <v>33918.118006999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.421699</v>
+        <v>9.4216990000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1223.570000</v>
+        <v>1223.57</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.498600</v>
+        <v>-91.498599999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>33928.569705</v>
+        <v>33928.569705000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.424603</v>
+        <v>9.4246029999999994</v>
       </c>
       <c r="AG24" s="1">
-        <v>1228.190000</v>
+        <v>1228.19</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.741300</v>
+        <v>-86.741299999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>33939.443499</v>
+        <v>33939.443499000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.427623</v>
+        <v>9.4276230000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>1235.220000</v>
+        <v>1235.22</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.891300</v>
+        <v>-89.891300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>33950.685822</v>
+        <v>33950.685821999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.430746</v>
+        <v>9.4307459999999992</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.726000</v>
+        <v>-101.726</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>33961.774878</v>
+        <v>33961.774877999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.433826</v>
+        <v>9.4338259999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.960000</v>
+        <v>1252.96</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.095000</v>
+        <v>-121.095</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>33972.746879</v>
+        <v>33972.746878999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.436874</v>
+        <v>9.4368739999999995</v>
       </c>
       <c r="BA24" s="1">
-        <v>1261.380000</v>
+        <v>1261.3800000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.649000</v>
+        <v>-138.649</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>33983.493202</v>
+        <v>33983.493201999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.439859</v>
+        <v>9.4398590000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1301.130000</v>
+        <v>1301.1300000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.019000</v>
+        <v>-221.01900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>33994.256386</v>
+        <v>33994.256386000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.442849</v>
+        <v>9.4428490000000007</v>
       </c>
       <c r="BK24" s="1">
-        <v>1370.180000</v>
+        <v>1370.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.822000</v>
+        <v>-358.822</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>34005.325638</v>
+        <v>34005.325638000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.445924</v>
+        <v>9.4459239999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.910000</v>
+        <v>1483.91</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-584.294000</v>
+        <v>-584.29399999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>34016.006454</v>
+        <v>34016.006454000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.448891</v>
+        <v>9.4488909999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.210000</v>
+        <v>1616.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-839.962000</v>
+        <v>-839.96199999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>34027.055832</v>
+        <v>34027.055831999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.451960</v>
+        <v>9.4519599999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1768.260000</v>
+        <v>1768.26</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1118.110000</v>
+        <v>-1118.1099999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>34040.108587</v>
+        <v>34040.108587000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.455586</v>
+        <v>9.4555860000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>2188.550000</v>
+        <v>2188.5500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1796.160000</v>
+        <v>-1796.16</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>33865.706254</v>
+        <v>33865.706253999997</v>
       </c>
       <c r="B25" s="1">
-        <v>9.407141</v>
+        <v>9.4071409999999993</v>
       </c>
       <c r="C25" s="1">
-        <v>1150.100000</v>
+        <v>1150.0999999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.309000</v>
+        <v>-261.30900000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>33876.164169</v>
+        <v>33876.164169000003</v>
       </c>
       <c r="G25" s="1">
-        <v>9.410046</v>
+        <v>9.4100459999999995</v>
       </c>
       <c r="H25" s="1">
-        <v>1172.620000</v>
+        <v>1172.6199999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-220.705000</v>
+        <v>-220.70500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>33887.332817</v>
+        <v>33887.332817000002</v>
       </c>
       <c r="L25" s="1">
-        <v>9.413148</v>
+        <v>9.4131479999999996</v>
       </c>
       <c r="M25" s="1">
-        <v>1201.230000</v>
+        <v>1201.23</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.909000</v>
+        <v>-152.90899999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>33897.909506</v>
+        <v>33897.909506000004</v>
       </c>
       <c r="Q25" s="1">
         <v>9.416086</v>
       </c>
       <c r="R25" s="1">
-        <v>1208.800000</v>
+        <v>1208.8</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.352000</v>
+        <v>-130.352</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>33908.272917</v>
+        <v>33908.272917000002</v>
       </c>
       <c r="V25" s="1">
         <v>9.418965</v>
       </c>
       <c r="W25" s="1">
-        <v>1216.070000</v>
+        <v>1216.07</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.281000</v>
+        <v>-109.28100000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>33918.469176</v>
+        <v>33918.469175999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.421797</v>
+        <v>9.4217969999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.595000</v>
+        <v>-91.594999999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>33928.913930</v>
+        <v>33928.913930000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.424698</v>
+        <v>9.4246979999999994</v>
       </c>
       <c r="AG25" s="1">
-        <v>1228.200000</v>
+        <v>1228.2</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.765800</v>
+        <v>-86.765799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>33940.108644</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.427808</v>
+        <v>9.4278080000000006</v>
       </c>
       <c r="AL25" s="1">
-        <v>1235.230000</v>
+        <v>1235.23</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.871800</v>
+        <v>-89.871799999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>33951.098028</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.430861</v>
+        <v>9.4308610000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1243.110000</v>
+        <v>1243.1099999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>33962.226269</v>
+        <v>33962.226268999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.433952</v>
+        <v>9.4339519999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.990000</v>
+        <v>1252.99</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.124000</v>
+        <v>-121.124</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>33973.132798</v>
+        <v>33973.132797999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.436981</v>
+        <v>9.4369809999999994</v>
       </c>
       <c r="BA25" s="1">
-        <v>1261.370000</v>
+        <v>1261.3699999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.620000</v>
+        <v>-138.62</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>33983.884048</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.439968</v>
+        <v>9.4399680000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1301.150000</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.996000</v>
+        <v>-220.99600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>33994.631858</v>
+        <v>33994.631858000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.442953</v>
+        <v>9.4429529999999993</v>
       </c>
       <c r="BK25" s="1">
-        <v>1370.240000</v>
+        <v>1370.24</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.837000</v>
+        <v>-358.83699999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>34005.749685</v>
+        <v>34005.749685000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.446042</v>
+        <v>9.4460420000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.950000</v>
+        <v>1483.95</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.282000</v>
+        <v>-584.28200000000004</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>34016.431030</v>
+        <v>34016.43103</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.449009</v>
+        <v>9.4490090000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.100000</v>
+        <v>1616.1</v>
       </c>
       <c r="BV25" s="1">
-        <v>-840.002000</v>
+        <v>-840.00199999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>34027.475959</v>
+        <v>34027.475959000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.452077</v>
+        <v>9.4520769999999992</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1768.310000</v>
+        <v>1768.31</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>34040.647733</v>
+        <v>34040.647732999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.455735</v>
+        <v>9.4557350000000007</v>
       </c>
       <c r="CE25" s="1">
-        <v>2190.410000</v>
+        <v>2190.41</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1795.820000</v>
+        <v>-1795.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>33866.391723</v>
+        <v>33866.391723000001</v>
       </c>
       <c r="B26" s="1">
-        <v>9.407331</v>
+        <v>9.4073309999999992</v>
       </c>
       <c r="C26" s="1">
-        <v>1150.600000</v>
+        <v>1150.5999999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.412000</v>
+        <v>-261.41199999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>33876.858798</v>
+        <v>33876.858798000001</v>
       </c>
       <c r="G26" s="1">
-        <v>9.410239</v>
+        <v>9.4102390000000007</v>
       </c>
       <c r="H26" s="1">
-        <v>1172.820000</v>
+        <v>1172.82</v>
       </c>
       <c r="I26" s="1">
-        <v>-220.573000</v>
+        <v>-220.57300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>33887.680513</v>
+        <v>33887.680512999999</v>
       </c>
       <c r="L26" s="1">
-        <v>9.413245</v>
+        <v>9.4132449999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1200.850000</v>
+        <v>1200.8499999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.784000</v>
+        <v>-152.78399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>33898.253233</v>
+        <v>33898.253233000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.416181</v>
+        <v>9.4161809999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1208.800000</v>
+        <v>1208.8</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.336000</v>
+        <v>-130.33600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>33908.615653</v>
+        <v>33908.615653000001</v>
       </c>
       <c r="V26" s="1">
-        <v>9.419060</v>
+        <v>9.41906</v>
       </c>
       <c r="W26" s="1">
-        <v>1216.050000</v>
+        <v>1216.05</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.175000</v>
+        <v>-109.175</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>33919.130839</v>
+        <v>33919.130838999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.421981</v>
+        <v>9.4219810000000006</v>
       </c>
       <c r="AB26" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.571900</v>
+        <v>-91.571899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>33929.581544</v>
+        <v>33929.581544000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.424884</v>
+        <v>9.4248840000000005</v>
       </c>
       <c r="AG26" s="1">
-        <v>1228.130000</v>
+        <v>1228.1300000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.768300</v>
+        <v>-86.768299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>33940.486090</v>
+        <v>33940.486089999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.427913</v>
+        <v>9.4279130000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1235.200000</v>
+        <v>1235.2</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.886600</v>
+        <v>-89.886600000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>33951.456614</v>
+        <v>33951.456614000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.430960</v>
+        <v>9.4309600000000007</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1243.120000</v>
+        <v>1243.1199999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.749000</v>
+        <v>-101.749</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>33962.591820</v>
+        <v>33962.591820000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.434053</v>
+        <v>9.4340530000000005</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.970000</v>
+        <v>1252.97</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.077000</v>
+        <v>-121.077</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>33973.491375</v>
+        <v>33973.491374999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.437081</v>
+        <v>9.4370809999999992</v>
       </c>
       <c r="BA26" s="1">
-        <v>1261.350000</v>
+        <v>1261.3499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.608000</v>
+        <v>-138.608</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>33984.298214</v>
+        <v>33984.298214000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.440083</v>
+        <v>9.4400829999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1301.160000</v>
+        <v>1301.1600000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.002000</v>
+        <v>-221.00200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>33995.059906</v>
+        <v>33995.059906000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.443072</v>
+        <v>9.4430720000000008</v>
       </c>
       <c r="BK26" s="1">
-        <v>1370.210000</v>
+        <v>1370.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.831000</v>
+        <v>-358.83100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>34006.146484</v>
+        <v>34006.146483999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.446152</v>
+        <v>9.4461519999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.940000</v>
+        <v>1483.94</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.246000</v>
+        <v>-584.24599999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>34016.847210</v>
+        <v>34016.84721</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.449124</v>
+        <v>9.4491239999999994</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.090000</v>
+        <v>1616.09</v>
       </c>
       <c r="BV26" s="1">
-        <v>-840.111000</v>
+        <v>-840.11099999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>34027.898068</v>
+        <v>34027.898068000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.452194</v>
+        <v>9.4521940000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1768.200000</v>
+        <v>1768.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>34041.189334</v>
+        <v>34041.189334000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.455886</v>
+        <v>9.4558859999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>2189.060000</v>
+        <v>2189.06</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1794.510000</v>
+        <v>-1794.51</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>